--- a/(cumilla)_1-10-2025 TO 10-10-2025(95).xlsx
+++ b/(cumilla)_1-10-2025 TO 10-10-2025(95).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office file\petty cash bill\1-1-2025 31-11-2025\1-10-2025 to 31-10-2025\1-10-2025 TO 10-10-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A2F9EA-5DE8-47DE-BA86-F9993A2B8E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BD8BF7-6118-470A-8862-3C3785AFFCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="863" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Front Page" sheetId="1" r:id="rId1"/>
@@ -2630,6 +2630,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2639,50 +2678,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3224,7 +3224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" zoomScaleSheetLayoutView="112" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -6119,16 +6119,16 @@
       <c r="K1" s="393"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="340"/>
+      <c r="A2" s="337"/>
       <c r="B2" s="330"/>
       <c r="C2" s="330"/>
       <c r="D2" s="330"/>
-      <c r="E2" s="341"/>
-      <c r="G2" s="340"/>
+      <c r="E2" s="338"/>
+      <c r="G2" s="337"/>
       <c r="H2" s="330"/>
       <c r="I2" s="330"/>
       <c r="J2" s="330"/>
-      <c r="K2" s="341"/>
+      <c r="K2" s="338"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="386" t="s">
@@ -6343,11 +6343,11 @@
         <v>82</v>
       </c>
       <c r="E16" s="120"/>
-      <c r="G16" s="340"/>
+      <c r="G16" s="337"/>
       <c r="H16" s="330"/>
       <c r="I16" s="330"/>
       <c r="J16" s="330"/>
-      <c r="K16" s="341"/>
+      <c r="K16" s="338"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" s="386" t="s">
@@ -6387,11 +6387,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="340"/>
+      <c r="A20" s="337"/>
       <c r="B20" s="330"/>
       <c r="C20" s="330"/>
       <c r="D20" s="330"/>
-      <c r="E20" s="341"/>
+      <c r="E20" s="338"/>
       <c r="G20" s="110">
         <v>1</v>
       </c>
@@ -10362,10 +10362,10 @@
       <c r="F14" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="349" t="s">
+      <c r="H14" s="344" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="351"/>
+      <c r="I14" s="346"/>
       <c r="J14" s="102" t="s">
         <v>68</v>
       </c>
@@ -12722,6 +12722,10 @@
   </sheetData>
   <autoFilter ref="A3:L4" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="20">
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="J12:J15"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="H22:H23"/>
@@ -12738,10 +12742,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="G12:G15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="J12:J15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F64 E9:E12 F24:F26 D30:D64 E6:E7 F16 E16:E64 F18" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -13254,8 +13254,8 @@
   </sheetPr>
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:G85"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13275,46 +13275,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="339"/>
-      <c r="I1" s="337" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="336"/>
+      <c r="I1" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="339"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="336"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="340"/>
+      <c r="A2" s="337"/>
       <c r="B2" s="330"/>
       <c r="C2" s="330"/>
       <c r="D2" s="330"/>
       <c r="E2" s="330"/>
       <c r="F2" s="330"/>
-      <c r="G2" s="341"/>
-      <c r="I2" s="340"/>
+      <c r="G2" s="338"/>
+      <c r="I2" s="337"/>
       <c r="J2" s="330"/>
       <c r="K2" s="330"/>
       <c r="L2" s="330"/>
       <c r="M2" s="330"/>
       <c r="N2" s="330"/>
-      <c r="O2" s="341"/>
+      <c r="O2" s="338"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="342" t="s">
+      <c r="A3" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="343"/>
+      <c r="B3" s="340"/>
       <c r="C3" s="123" t="s">
         <v>219</v>
       </c>
@@ -13326,10 +13326,10 @@
       <c r="G3" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="342" t="s">
+      <c r="I3" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="343"/>
+      <c r="J3" s="340"/>
       <c r="K3" s="123" t="s">
         <v>124</v>
       </c>
@@ -13535,15 +13535,15 @@
         <v>80</v>
       </c>
       <c r="G11" s="117"/>
-      <c r="I11" s="337" t="s">
+      <c r="I11" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="338"/>
-      <c r="K11" s="338"/>
-      <c r="L11" s="338"/>
-      <c r="M11" s="338"/>
-      <c r="N11" s="338"/>
-      <c r="O11" s="339"/>
+      <c r="J11" s="335"/>
+      <c r="K11" s="335"/>
+      <c r="L11" s="335"/>
+      <c r="M11" s="335"/>
+      <c r="N11" s="335"/>
+      <c r="O11" s="336"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="127" t="s">
@@ -13559,19 +13559,19 @@
         <v>82</v>
       </c>
       <c r="G12" s="130"/>
-      <c r="I12" s="340"/>
+      <c r="I12" s="337"/>
       <c r="J12" s="330"/>
       <c r="K12" s="330"/>
       <c r="L12" s="330"/>
       <c r="M12" s="330"/>
       <c r="N12" s="330"/>
-      <c r="O12" s="341"/>
+      <c r="O12" s="338"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="342" t="s">
+      <c r="I13" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="343"/>
+      <c r="J13" s="340"/>
       <c r="K13" s="123" t="s">
         <v>125</v>
       </c>
@@ -13585,26 +13585,26 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="337" t="s">
+      <c r="A14" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="338"/>
-      <c r="C14" s="338"/>
-      <c r="D14" s="338"/>
-      <c r="E14" s="338"/>
-      <c r="F14" s="338"/>
-      <c r="G14" s="339"/>
+      <c r="B14" s="335"/>
+      <c r="C14" s="335"/>
+      <c r="D14" s="335"/>
+      <c r="E14" s="335"/>
+      <c r="F14" s="335"/>
+      <c r="G14" s="336"/>
       <c r="I14" s="105"/>
       <c r="O14" s="106"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="340"/>
+      <c r="A15" s="337"/>
       <c r="B15" s="330"/>
       <c r="C15" s="330"/>
       <c r="D15" s="330"/>
       <c r="E15" s="330"/>
       <c r="F15" s="330"/>
-      <c r="G15" s="341"/>
+      <c r="G15" s="338"/>
       <c r="I15" s="107" t="s">
         <v>77</v>
       </c>
@@ -13628,10 +13628,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="342" t="s">
+      <c r="A16" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="343"/>
+      <c r="B16" s="340"/>
       <c r="C16" s="123" t="s">
         <v>126</v>
       </c>
@@ -13738,11 +13738,11 @@
       <c r="G19" s="109">
         <v>40</v>
       </c>
-      <c r="I19" s="334"/>
-      <c r="J19" s="335"/>
-      <c r="K19" s="335"/>
-      <c r="L19" s="335"/>
-      <c r="M19" s="336"/>
+      <c r="I19" s="347"/>
+      <c r="J19" s="348"/>
+      <c r="K19" s="348"/>
+      <c r="L19" s="348"/>
+      <c r="M19" s="349"/>
       <c r="N19" s="209" t="s">
         <v>23</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>145</v>
       </c>
       <c r="G20" s="109">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="I20" s="105"/>
       <c r="O20" s="106"/>
@@ -13802,25 +13802,25 @@
       <c r="O21" s="115"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="344"/>
-      <c r="B22" s="345"/>
-      <c r="C22" s="345"/>
-      <c r="D22" s="345"/>
-      <c r="E22" s="345"/>
+      <c r="A22" s="350"/>
+      <c r="B22" s="351"/>
+      <c r="C22" s="351"/>
+      <c r="D22" s="351"/>
+      <c r="E22" s="351"/>
       <c r="F22" s="111" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="112">
         <f>SUM(G19:G21)</f>
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="334"/>
-      <c r="B23" s="335"/>
-      <c r="C23" s="335"/>
-      <c r="D23" s="335"/>
-      <c r="E23" s="335"/>
+      <c r="A23" s="347"/>
+      <c r="B23" s="348"/>
+      <c r="C23" s="348"/>
+      <c r="D23" s="348"/>
+      <c r="E23" s="348"/>
       <c r="G23" s="106"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -13831,15 +13831,15 @@
       <c r="E24" s="114"/>
       <c r="F24" s="114"/>
       <c r="G24" s="115"/>
-      <c r="I24" s="337" t="s">
+      <c r="I24" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="J24" s="338"/>
-      <c r="K24" s="338"/>
-      <c r="L24" s="338"/>
-      <c r="M24" s="338"/>
-      <c r="N24" s="338"/>
-      <c r="O24" s="339"/>
+      <c r="J24" s="335"/>
+      <c r="K24" s="335"/>
+      <c r="L24" s="335"/>
+      <c r="M24" s="335"/>
+      <c r="N24" s="335"/>
+      <c r="O24" s="336"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="116" t="s">
@@ -13855,7 +13855,7 @@
         <v>80</v>
       </c>
       <c r="G25" s="117"/>
-      <c r="I25" s="340" t="s">
+      <c r="I25" s="337" t="s">
         <v>128</v>
       </c>
       <c r="J25" s="330"/>
@@ -13863,7 +13863,7 @@
       <c r="L25" s="330"/>
       <c r="M25" s="330"/>
       <c r="N25" s="330"/>
-      <c r="O25" s="341"/>
+      <c r="O25" s="338"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="127" t="s">
@@ -13879,10 +13879,10 @@
         <v>82</v>
       </c>
       <c r="G26" s="130"/>
-      <c r="I26" s="342" t="s">
+      <c r="I26" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="343"/>
+      <c r="J26" s="340"/>
       <c r="K26" s="123" t="s">
         <v>124</v>
       </c>
@@ -13900,15 +13900,15 @@
       <c r="O27" s="106"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="337" t="s">
+      <c r="A28" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="338"/>
-      <c r="C28" s="338"/>
-      <c r="D28" s="338"/>
-      <c r="E28" s="338"/>
-      <c r="F28" s="338"/>
-      <c r="G28" s="339"/>
+      <c r="B28" s="335"/>
+      <c r="C28" s="335"/>
+      <c r="D28" s="335"/>
+      <c r="E28" s="335"/>
+      <c r="F28" s="335"/>
+      <c r="G28" s="336"/>
       <c r="H28" s="197" t="s">
         <v>127</v>
       </c>
@@ -13935,13 +13935,13 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="340"/>
+      <c r="A29" s="337"/>
       <c r="B29" s="330"/>
       <c r="C29" s="330"/>
       <c r="D29" s="330"/>
       <c r="E29" s="330"/>
       <c r="F29" s="330"/>
-      <c r="G29" s="341"/>
+      <c r="G29" s="338"/>
       <c r="I29" s="110">
         <v>1</v>
       </c>
@@ -13953,10 +13953,10 @@
       <c r="O29" s="112"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="342" t="s">
+      <c r="A30" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="343"/>
+      <c r="B30" s="340"/>
       <c r="C30" s="123" t="s">
         <v>126</v>
       </c>
@@ -14114,11 +14114,11 @@
       <c r="O36" s="115"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="346"/>
-      <c r="B37" s="347"/>
-      <c r="C37" s="347"/>
-      <c r="D37" s="347"/>
-      <c r="E37" s="348"/>
+      <c r="A37" s="341"/>
+      <c r="B37" s="342"/>
+      <c r="C37" s="342"/>
+      <c r="D37" s="342"/>
+      <c r="E37" s="343"/>
       <c r="F37" s="111" t="s">
         <v>23</v>
       </c>
@@ -14197,30 +14197,30 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="337" t="s">
+      <c r="A43" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="338"/>
-      <c r="C43" s="338"/>
-      <c r="D43" s="338"/>
-      <c r="E43" s="338"/>
-      <c r="F43" s="338"/>
-      <c r="G43" s="339"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="335"/>
+      <c r="F43" s="335"/>
+      <c r="G43" s="336"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="340"/>
+      <c r="A44" s="337"/>
       <c r="B44" s="330"/>
       <c r="C44" s="330"/>
       <c r="D44" s="330"/>
       <c r="E44" s="330"/>
       <c r="F44" s="330"/>
-      <c r="G44" s="341"/>
+      <c r="G44" s="338"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="342" t="s">
+      <c r="A45" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="343"/>
+      <c r="B45" s="340"/>
       <c r="C45" s="123" t="s">
         <v>124</v>
       </c>
@@ -14296,11 +14296,11 @@
       <c r="G50" s="102"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="334"/>
-      <c r="B51" s="335"/>
-      <c r="C51" s="335"/>
-      <c r="D51" s="335"/>
-      <c r="E51" s="336"/>
+      <c r="A51" s="347"/>
+      <c r="B51" s="348"/>
+      <c r="C51" s="348"/>
+      <c r="D51" s="348"/>
+      <c r="E51" s="349"/>
       <c r="F51" s="209" t="s">
         <v>23</v>
       </c>
@@ -14354,18 +14354,18 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="337" t="s">
+      <c r="A57" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="338"/>
-      <c r="C57" s="338"/>
-      <c r="D57" s="338"/>
-      <c r="E57" s="338"/>
-      <c r="F57" s="338"/>
-      <c r="G57" s="339"/>
+      <c r="B57" s="335"/>
+      <c r="C57" s="335"/>
+      <c r="D57" s="335"/>
+      <c r="E57" s="335"/>
+      <c r="F57" s="335"/>
+      <c r="G57" s="336"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="340" t="s">
+      <c r="A58" s="337" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="330"/>
@@ -14373,13 +14373,13 @@
       <c r="D58" s="330"/>
       <c r="E58" s="330"/>
       <c r="F58" s="330"/>
-      <c r="G58" s="341"/>
+      <c r="G58" s="338"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="342" t="s">
+      <c r="A59" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="343"/>
+      <c r="B59" s="340"/>
       <c r="C59" s="123" t="s">
         <v>126</v>
       </c>
@@ -14516,18 +14516,18 @@
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="337" t="s">
+      <c r="A70" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="338"/>
-      <c r="C70" s="338"/>
-      <c r="D70" s="338"/>
-      <c r="E70" s="338"/>
-      <c r="F70" s="338"/>
-      <c r="G70" s="339"/>
+      <c r="B70" s="335"/>
+      <c r="C70" s="335"/>
+      <c r="D70" s="335"/>
+      <c r="E70" s="335"/>
+      <c r="F70" s="335"/>
+      <c r="G70" s="336"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="340" t="s">
+      <c r="A71" s="337" t="s">
         <v>128</v>
       </c>
       <c r="B71" s="330"/>
@@ -14535,13 +14535,13 @@
       <c r="D71" s="330"/>
       <c r="E71" s="330"/>
       <c r="F71" s="330"/>
-      <c r="G71" s="341"/>
+      <c r="G71" s="338"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="342" t="s">
+      <c r="A72" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="343"/>
+      <c r="B72" s="340"/>
       <c r="C72" s="123" t="s">
         <v>151</v>
       </c>
@@ -14651,12 +14651,12 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="349"/>
-      <c r="B78" s="350"/>
-      <c r="C78" s="350"/>
-      <c r="D78" s="350"/>
-      <c r="E78" s="350"/>
-      <c r="F78" s="351"/>
+      <c r="A78" s="344"/>
+      <c r="B78" s="345"/>
+      <c r="C78" s="345"/>
+      <c r="D78" s="345"/>
+      <c r="E78" s="345"/>
+      <c r="F78" s="346"/>
       <c r="G78" s="102"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -14734,18 +14734,18 @@
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="337" t="s">
+      <c r="A88" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="338"/>
-      <c r="C88" s="338"/>
-      <c r="D88" s="338"/>
-      <c r="E88" s="338"/>
-      <c r="F88" s="338"/>
-      <c r="G88" s="339"/>
+      <c r="B88" s="335"/>
+      <c r="C88" s="335"/>
+      <c r="D88" s="335"/>
+      <c r="E88" s="335"/>
+      <c r="F88" s="335"/>
+      <c r="G88" s="336"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="340" t="s">
+      <c r="A89" s="337" t="s">
         <v>164</v>
       </c>
       <c r="B89" s="330"/>
@@ -14753,13 +14753,13 @@
       <c r="D89" s="330"/>
       <c r="E89" s="330"/>
       <c r="F89" s="330"/>
-      <c r="G89" s="341"/>
+      <c r="G89" s="338"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="342" t="s">
+      <c r="A90" s="339" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="343"/>
+      <c r="B90" s="340"/>
       <c r="C90" s="123" t="s">
         <v>213</v>
       </c>
@@ -14904,6 +14904,26 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="I12:O12"/>
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A90:B90"/>
@@ -14919,26 +14939,6 @@
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A58:G58"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A22:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
